--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>1856.76451636465</v>
+        <v>1933.449712215681</v>
       </c>
       <c r="R2">
-        <v>1856.76451636465</v>
+        <v>7733.798848862724</v>
       </c>
       <c r="S2">
-        <v>0.01572312145327135</v>
+        <v>0.0124858464229078</v>
       </c>
       <c r="T2">
-        <v>0.01572312145327135</v>
+        <v>0.006302327404102457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>2579.452763649386</v>
+        <v>2850.522717486253</v>
       </c>
       <c r="R3">
-        <v>2579.452763649386</v>
+        <v>17103.13630491752</v>
       </c>
       <c r="S3">
-        <v>0.02184286091660249</v>
+        <v>0.01840812753012159</v>
       </c>
       <c r="T3">
-        <v>0.02184286091660249</v>
+        <v>0.01393746679181242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>1255.117525659319</v>
+        <v>1347.945734288201</v>
       </c>
       <c r="R4">
-        <v>1255.117525659319</v>
+        <v>8087.674405729208</v>
       </c>
       <c r="S4">
-        <v>0.01062836192750425</v>
+        <v>0.008704774330773341</v>
       </c>
       <c r="T4">
-        <v>0.01062836192750425</v>
+        <v>0.006590703099315893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>961.5552566149784</v>
+        <v>991.9962250540265</v>
       </c>
       <c r="R5">
-        <v>961.5552566149784</v>
+        <v>5951.977350324159</v>
       </c>
       <c r="S5">
-        <v>0.008142470383583986</v>
+        <v>0.006406120852212356</v>
       </c>
       <c r="T5">
-        <v>0.008142470383583986</v>
+        <v>0.004850308457280501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>975.2083333586514</v>
+        <v>1044.85088892412</v>
       </c>
       <c r="R6">
-        <v>975.2083333586514</v>
+        <v>6269.105333544718</v>
       </c>
       <c r="S6">
-        <v>0.008258084928110023</v>
+        <v>0.006747446107090657</v>
       </c>
       <c r="T6">
-        <v>0.008258084928110023</v>
+        <v>0.005108738294714477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>437.439360236507</v>
+        <v>453.1573770807592</v>
       </c>
       <c r="R7">
-        <v>437.439360236507</v>
+        <v>1812.629508323037</v>
       </c>
       <c r="S7">
-        <v>0.003704245815137694</v>
+        <v>0.002926403195226681</v>
       </c>
       <c r="T7">
-        <v>0.003704245815137694</v>
+        <v>0.001477124611984049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>15545.19987184022</v>
+        <v>16631.05121367742</v>
       </c>
       <c r="R8">
-        <v>15545.19987184022</v>
+        <v>99786.30728206447</v>
       </c>
       <c r="S8">
-        <v>0.1316370834568021</v>
+        <v>0.1074001304474198</v>
       </c>
       <c r="T8">
-        <v>0.1316370834568021</v>
+        <v>0.08131656786372495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>21595.68885418396</v>
+        <v>24519.48400868282</v>
       </c>
       <c r="R9">
-        <v>21595.68885418396</v>
+        <v>220675.3560781454</v>
       </c>
       <c r="S9">
-        <v>0.1828727529682651</v>
+        <v>0.1583421124258368</v>
       </c>
       <c r="T9">
-        <v>0.1828727529682651</v>
+        <v>0.1798299091042275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>10508.09223628651</v>
+        <v>11594.69232562297</v>
       </c>
       <c r="R10">
-        <v>10508.09223628651</v>
+        <v>104352.2309306067</v>
       </c>
       <c r="S10">
-        <v>0.08898274876385188</v>
+        <v>0.07487629328238074</v>
       </c>
       <c r="T10">
-        <v>0.08898274876385188</v>
+        <v>0.08503737135210096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>8050.330841718273</v>
+        <v>8532.903606653408</v>
       </c>
       <c r="R11">
-        <v>8050.330841718273</v>
+        <v>76796.13245988067</v>
       </c>
       <c r="S11">
-        <v>0.06817037295131845</v>
+        <v>0.05510385054290237</v>
       </c>
       <c r="T11">
-        <v>0.06817037295131845</v>
+        <v>0.06258171172917962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>8164.637101330297</v>
+        <v>8987.546215742983</v>
       </c>
       <c r="R12">
-        <v>8164.637101330297</v>
+        <v>80887.91594168685</v>
       </c>
       <c r="S12">
-        <v>0.06913832079118122</v>
+        <v>0.05803984508081943</v>
       </c>
       <c r="T12">
-        <v>0.06913832079118122</v>
+        <v>0.06591613504080129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>3662.328866559915</v>
+        <v>3897.946503842207</v>
       </c>
       <c r="R13">
-        <v>3662.328866559915</v>
+        <v>23387.67902305324</v>
       </c>
       <c r="S13">
-        <v>0.03101267880941903</v>
+        <v>0.02517218891403729</v>
       </c>
       <c r="T13">
-        <v>0.03101267880941903</v>
+        <v>0.01905878512046065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>5860.750488935043</v>
+        <v>11573.12019868921</v>
       </c>
       <c r="R14">
-        <v>5860.750488935043</v>
+        <v>69438.72119213524</v>
       </c>
       <c r="S14">
-        <v>0.0496289599099318</v>
+        <v>0.07473698463514331</v>
       </c>
       <c r="T14">
-        <v>0.0496289599099318</v>
+        <v>0.05658610522814128</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>8141.866624714221</v>
+        <v>17062.47741026458</v>
       </c>
       <c r="R15">
-        <v>8141.866624714221</v>
+        <v>153562.2966923812</v>
       </c>
       <c r="S15">
-        <v>0.06894549991043517</v>
+        <v>0.110186197858107</v>
       </c>
       <c r="T15">
-        <v>0.06894549991043517</v>
+        <v>0.1251390021378205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>3961.692819604789</v>
+        <v>8068.4477623939</v>
       </c>
       <c r="R16">
-        <v>3961.692819604789</v>
+        <v>72616.02986154509</v>
       </c>
       <c r="S16">
-        <v>0.03354769913696797</v>
+        <v>0.05210448401942524</v>
       </c>
       <c r="T16">
-        <v>0.03354769913696797</v>
+        <v>0.05917531654457713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>3035.083550270492</v>
+        <v>5937.827850738288</v>
       </c>
       <c r="R17">
-        <v>3035.083550270492</v>
+        <v>53440.45065664459</v>
       </c>
       <c r="S17">
-        <v>0.02570115211764259</v>
+        <v>0.03834535036601591</v>
       </c>
       <c r="T17">
-        <v>0.02570115211764259</v>
+        <v>0.04354900136955121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>3078.178555315943</v>
+        <v>6254.201932859576</v>
       </c>
       <c r="R18">
-        <v>3078.178555315943</v>
+        <v>56287.81739573618</v>
       </c>
       <c r="S18">
-        <v>0.02606608153781786</v>
+        <v>0.04038843334696814</v>
       </c>
       <c r="T18">
-        <v>0.02606608153781786</v>
+        <v>0.04586934067239532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>1380.747489404333</v>
+        <v>2712.480578493229</v>
       </c>
       <c r="R19">
-        <v>1380.747489404333</v>
+        <v>16274.88347095937</v>
       </c>
       <c r="S19">
-        <v>0.01169219913503574</v>
+        <v>0.01751667794316469</v>
       </c>
       <c r="T19">
-        <v>0.01169219913503574</v>
+        <v>0.0132625176969381</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>1849.784537615454</v>
+        <v>2313.273843111748</v>
       </c>
       <c r="R20">
-        <v>1849.784537615454</v>
+        <v>13879.64305867049</v>
       </c>
       <c r="S20">
-        <v>0.01566401484462626</v>
+        <v>0.01493867761687147</v>
       </c>
       <c r="T20">
-        <v>0.01566401484462626</v>
+        <v>0.01131061933692299</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>2569.756043728177</v>
+        <v>3410.504860765257</v>
       </c>
       <c r="R21">
-        <v>2569.756043728177</v>
+        <v>30694.54374688732</v>
       </c>
       <c r="S21">
-        <v>0.02176074888587604</v>
+        <v>0.02202438452215885</v>
       </c>
       <c r="T21">
-        <v>0.02176074888587604</v>
+        <v>0.02501320088521265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>1250.399267862149</v>
+        <v>1612.748234082395</v>
       </c>
       <c r="R22">
-        <v>1250.399267862149</v>
+        <v>14514.73410674156</v>
       </c>
       <c r="S22">
-        <v>0.01058840762003074</v>
+        <v>0.01041481795070461</v>
       </c>
       <c r="T22">
-        <v>0.01058840762003074</v>
+        <v>0.01182815952571999</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>957.9405627762084</v>
+        <v>1186.872823939829</v>
       </c>
       <c r="R23">
-        <v>957.9405627762084</v>
+        <v>10681.85541545846</v>
       </c>
       <c r="S23">
-        <v>0.008111861079203996</v>
+        <v>0.007664596451413925</v>
       </c>
       <c r="T23">
-        <v>0.008111861079203996</v>
+        <v>0.008704719559832324</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>971.5423146562856</v>
+        <v>1250.110730074473</v>
       </c>
       <c r="R24">
-        <v>971.5423146562856</v>
+        <v>11250.99657067026</v>
       </c>
       <c r="S24">
-        <v>0.008227041003692447</v>
+        <v>0.008072974688052204</v>
       </c>
       <c r="T24">
-        <v>0.008227041003692447</v>
+        <v>0.009168516714295593</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>435.7949312248568</v>
+        <v>542.179659802349</v>
       </c>
       <c r="R25">
-        <v>435.7949312248568</v>
+        <v>3253.077958814094</v>
       </c>
       <c r="S25">
-        <v>0.003690320755258759</v>
+        <v>0.003501291977311775</v>
       </c>
       <c r="T25">
-        <v>0.003690320755258759</v>
+        <v>0.002650956246493354</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>1052.793843290388</v>
+        <v>1083.704944882934</v>
       </c>
       <c r="R26">
-        <v>1052.793843290388</v>
+        <v>6502.229669297604</v>
       </c>
       <c r="S26">
-        <v>0.00891508067793138</v>
+        <v>0.006998358128512141</v>
       </c>
       <c r="T26">
-        <v>0.00891508067793138</v>
+        <v>0.005298712965441097</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>1462.561334350234</v>
+        <v>1597.727391058409</v>
       </c>
       <c r="R27">
-        <v>1462.561334350234</v>
+        <v>14379.54651952568</v>
       </c>
       <c r="S27">
-        <v>0.01238500051577415</v>
+        <v>0.01031781623508969</v>
       </c>
       <c r="T27">
-        <v>0.01238500051577415</v>
+        <v>0.0117179942043488</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>711.6572898576926</v>
+        <v>755.5280328485876</v>
       </c>
       <c r="R28">
-        <v>711.6572898576926</v>
+        <v>6799.752295637289</v>
       </c>
       <c r="S28">
-        <v>0.00602632908100067</v>
+        <v>0.004879054741764487</v>
       </c>
       <c r="T28">
-        <v>0.00602632908100067</v>
+        <v>0.005541166258830912</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>545.2061611613375</v>
+        <v>556.0171581418043</v>
       </c>
       <c r="R29">
-        <v>545.2061611613375</v>
+        <v>5004.154423276238</v>
       </c>
       <c r="S29">
-        <v>0.004616817379618656</v>
+        <v>0.003590651880521095</v>
       </c>
       <c r="T29">
-        <v>0.004616817379618656</v>
+        <v>0.004077920847503305</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>552.9475171658419</v>
+        <v>585.6423716833064</v>
       </c>
       <c r="R30">
-        <v>552.9475171658419</v>
+        <v>5270.781345149757</v>
       </c>
       <c r="S30">
-        <v>0.004682371347070675</v>
+        <v>0.003781965812395306</v>
       </c>
       <c r="T30">
-        <v>0.004682371347070675</v>
+        <v>0.004295197012714411</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N31">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O31">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P31">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q31">
-        <v>248.0300873971659</v>
+        <v>253.9962054610795</v>
       </c>
       <c r="R31">
-        <v>248.0300873971659</v>
+        <v>1523.977232766477</v>
       </c>
       <c r="S31">
-        <v>0.002100324060396501</v>
+        <v>0.00164025864926897</v>
       </c>
       <c r="T31">
-        <v>0.002100324060396501</v>
+        <v>0.001241899830211485</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N32">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O32">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P32">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q32">
-        <v>1020.47172967381</v>
+        <v>1190.511699988138</v>
       </c>
       <c r="R32">
-        <v>1020.47172967381</v>
+        <v>4762.046799952553</v>
       </c>
       <c r="S32">
-        <v>0.008641376331720104</v>
+        <v>0.007688095613147552</v>
       </c>
       <c r="T32">
-        <v>0.008641376331720104</v>
+        <v>0.00388062563217205</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N33">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P33">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q33">
-        <v>1417.658836181804</v>
+        <v>1755.194678614327</v>
       </c>
       <c r="R33">
-        <v>1417.658836181804</v>
+        <v>10531.16807168596</v>
       </c>
       <c r="S33">
-        <v>0.01200476520535374</v>
+        <v>0.01133470969584691</v>
       </c>
       <c r="T33">
-        <v>0.01200476520535374</v>
+        <v>0.008581923377171272</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N34">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O34">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P34">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q34">
-        <v>689.8085034828073</v>
+        <v>829.9906418461804</v>
       </c>
       <c r="R34">
-        <v>689.8085034828073</v>
+        <v>4979.943851077082</v>
       </c>
       <c r="S34">
-        <v>0.005841313092838909</v>
+        <v>0.005359919950887269</v>
       </c>
       <c r="T34">
-        <v>0.005841313092838909</v>
+        <v>0.004058191480911079</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N35">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O35">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P35">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q35">
-        <v>528.4676367124874</v>
+        <v>610.8165652353637</v>
       </c>
       <c r="R35">
-        <v>528.4676367124874</v>
+        <v>3664.899391412182</v>
       </c>
       <c r="S35">
-        <v>0.004475075198239025</v>
+        <v>0.003944535913146124</v>
       </c>
       <c r="T35">
-        <v>0.004475075198239025</v>
+        <v>0.002986552445849033</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N36">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O36">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P36">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q36">
-        <v>535.9713232151054</v>
+        <v>643.3615522286779</v>
       </c>
       <c r="R36">
-        <v>535.9713232151054</v>
+        <v>3860.169313372066</v>
       </c>
       <c r="S36">
-        <v>0.00453861657528932</v>
+        <v>0.004154705180475236</v>
       </c>
       <c r="T36">
-        <v>0.00453861657528932</v>
+        <v>0.003145679286928653</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N37">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O37">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P37">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q37">
-        <v>240.4152474014027</v>
+        <v>279.0293204638565</v>
       </c>
       <c r="R37">
-        <v>240.4152474014027</v>
+        <v>1116.117281855426</v>
       </c>
       <c r="S37">
-        <v>0.002035841433199904</v>
+        <v>0.001801917691879124</v>
       </c>
       <c r="T37">
-        <v>0.002035841433199904</v>
+        <v>0.0009095318703128911</v>
       </c>
     </row>
   </sheetData>
